--- a/lowe/edd/data/SACR$HWS.xlsx
+++ b/lowe/edd/data/SACR$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1682,14 +1682,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH102"/>
+  <dimension ref="A1:JI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1699,12 +1699,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1732,12 +1732,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2552,11 +2552,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3357,10 +3360,13 @@
         <v>1102700</v>
       </c>
       <c r="JH9" s="11">
-        <v>1098800</v>
+        <v>1098900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>1098000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4161,10 +4167,13 @@
         <v>1028800</v>
       </c>
       <c r="JH10" s="11">
-        <v>1028000</v>
+        <v>1028200</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1037300</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4965,10 +4974,13 @@
         <v>74000</v>
       </c>
       <c r="JH11" s="11">
-        <v>70800</v>
+        <v>70700</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>60700</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5771,8 +5783,11 @@
       <c r="JH12" s="12">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.5E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6573,10 +6588,13 @@
         <v>996600</v>
       </c>
       <c r="JH13" s="11">
-        <v>1004900</v>
+        <v>1005000</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1006600</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7377,10 +7395,13 @@
         <v>10500</v>
       </c>
       <c r="JH14" s="11">
+        <v>10500</v>
+      </c>
+      <c r="JI14" s="11">
         <v>10900</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8181,10 +8202,13 @@
         <v>986100</v>
       </c>
       <c r="JH15" s="11">
-        <v>994000</v>
+        <v>994500</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>995700</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8985,10 +9009,13 @@
         <v>759800</v>
       </c>
       <c r="JH16" s="11">
-        <v>761800</v>
+        <v>763000</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>762700</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9789,10 +9816,13 @@
         <v>116900</v>
       </c>
       <c r="JH17" s="11">
-        <v>117600</v>
+        <v>118900</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>118200</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10593,10 +10623,13 @@
         <v>80200</v>
       </c>
       <c r="JH18" s="11">
-        <v>80400</v>
+        <v>80800</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>80500</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11399,8 +11432,11 @@
       <c r="JH19" s="11">
         <v>600</v>
       </c>
+      <c r="JI19" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12201,10 +12237,13 @@
         <v>79600</v>
       </c>
       <c r="JH20" s="11">
-        <v>79800</v>
+        <v>80200</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>79900</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13007,8 +13046,11 @@
       <c r="JH21" s="11">
         <v>15100</v>
       </c>
+      <c r="JI21" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13809,10 +13851,13 @@
         <v>56200</v>
       </c>
       <c r="JH22" s="11">
-        <v>56200</v>
+        <v>56500</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>55900</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14615,8 +14660,11 @@
       <c r="JH23" s="11">
         <v>15700</v>
       </c>
+      <c r="JI23" s="11">
+        <v>15500</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15419,8 +15467,11 @@
       <c r="JH24" s="11">
         <v>21700</v>
       </c>
+      <c r="JI24" s="11">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16223,8 +16274,11 @@
       <c r="JH25" s="11">
         <v>11800</v>
       </c>
+      <c r="JI25" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -17025,10 +17079,13 @@
         <v>36700</v>
       </c>
       <c r="JH26" s="11">
-        <v>37200</v>
+        <v>38100</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>37700</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17829,10 +17886,13 @@
         <v>22800</v>
       </c>
       <c r="JH27" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JI27" s="11">
         <v>22600</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18633,10 +18693,13 @@
         <v>4500</v>
       </c>
       <c r="JH28" s="11">
-        <v>4500</v>
+        <v>4600</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>4600</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19437,10 +19500,13 @@
         <v>13900</v>
       </c>
       <c r="JH29" s="11">
-        <v>14600</v>
+        <v>15200</v>
+      </c>
+      <c r="JI29" s="11">
+        <v>15100</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20241,10 +20307,13 @@
         <v>4800</v>
       </c>
       <c r="JH30" s="11">
-        <v>5600</v>
+        <v>5700</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>5800</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21045,10 +21114,13 @@
         <v>869200</v>
       </c>
       <c r="JH31" s="11">
-        <v>876400</v>
+        <v>875600</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>877500</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21849,10 +21921,13 @@
         <v>642900</v>
       </c>
       <c r="JH32" s="11">
-        <v>644200</v>
+        <v>644100</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>644500</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22653,10 +22728,13 @@
         <v>160100</v>
       </c>
       <c r="JH33" s="11">
-        <v>160400</v>
+        <v>161100</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>161800</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23459,8 +23537,11 @@
       <c r="JH34" s="11">
         <v>26300</v>
       </c>
+      <c r="JI34" s="11">
+        <v>26100</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24261,10 +24342,13 @@
         <v>15400</v>
       </c>
       <c r="JH35" s="11">
+        <v>15400</v>
+      </c>
+      <c r="JI35" s="11">
         <v>15300</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25067,8 +25151,11 @@
       <c r="JH36" s="11">
         <v>9500</v>
       </c>
+      <c r="JI36" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25869,10 +25956,13 @@
         <v>97500</v>
       </c>
       <c r="JH37" s="11">
-        <v>97400</v>
+        <v>97600</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>97900</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26675,8 +26765,11 @@
       <c r="JH38" s="11">
         <v>14400</v>
       </c>
+      <c r="JI38" s="11">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27479,8 +27572,11 @@
       <c r="JH39" s="11">
         <v>9100</v>
       </c>
+      <c r="JI39" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28281,10 +28377,13 @@
         <v>19800</v>
       </c>
       <c r="JH40" s="11">
-        <v>19700</v>
+        <v>19900</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29087,8 +29186,11 @@
       <c r="JH41" s="11">
         <v>5200</v>
       </c>
+      <c r="JI41" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29889,10 +29991,13 @@
         <v>7700</v>
       </c>
       <c r="JH42" s="11">
+        <v>7900</v>
+      </c>
+      <c r="JI42" s="11">
         <v>7800</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30695,8 +30800,11 @@
       <c r="JH43" s="11">
         <v>3200</v>
       </c>
+      <c r="JI43" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31499,8 +31607,11 @@
       <c r="JH44" s="11">
         <v>18400</v>
       </c>
+      <c r="JI44" s="11">
+        <v>18700</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32301,10 +32412,13 @@
         <v>36300</v>
       </c>
       <c r="JH45" s="11">
-        <v>36700</v>
+        <v>37200</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>37800</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -33107,8 +33221,11 @@
       <c r="JH46" s="11">
         <v>9900</v>
       </c>
+      <c r="JI46" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -33911,8 +34028,11 @@
       <c r="JH47" s="11">
         <v>2100</v>
       </c>
+      <c r="JI47" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34715,8 +34835,11 @@
       <c r="JH48" s="11">
         <v>2800</v>
       </c>
+      <c r="JI48" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35517,10 +35640,13 @@
         <v>52200</v>
       </c>
       <c r="JH49" s="11">
-        <v>52200</v>
+        <v>51900</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>52400</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36321,10 +36447,13 @@
         <v>35400</v>
       </c>
       <c r="JH50" s="11">
-        <v>35400</v>
+        <v>35000</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>35300</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -37125,10 +37254,13 @@
         <v>11600</v>
       </c>
       <c r="JH51" s="11">
-        <v>11600</v>
+        <v>11500</v>
+      </c>
+      <c r="JI51" s="11">
+        <v>11300</v>
       </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -37929,10 +38061,13 @@
         <v>6000</v>
       </c>
       <c r="JH52" s="11">
-        <v>6000</v>
+        <v>5900</v>
+      </c>
+      <c r="JI52" s="11">
+        <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -38733,10 +38868,13 @@
         <v>3000</v>
       </c>
       <c r="JH53" s="11">
-        <v>3000</v>
+        <v>2900</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>2900</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>62</v>
       </c>
@@ -39537,10 +39675,13 @@
         <v>19100</v>
       </c>
       <c r="JH54" s="11">
-        <v>19200</v>
+        <v>18900</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>19400</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40341,10 +40482,13 @@
         <v>16800</v>
       </c>
       <c r="JH55" s="11">
-        <v>16800</v>
+        <v>16900</v>
+      </c>
+      <c r="JI55" s="11">
+        <v>17100</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>64</v>
       </c>
@@ -41145,10 +41289,13 @@
         <v>13700</v>
       </c>
       <c r="JH56" s="11">
-        <v>13700</v>
+        <v>13800</v>
+      </c>
+      <c r="JI56" s="11">
+        <v>13900</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>66</v>
       </c>
@@ -41949,10 +42096,13 @@
         <v>134600</v>
       </c>
       <c r="JH57" s="11">
-        <v>136700</v>
+        <v>135600</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>135300</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>67</v>
       </c>
@@ -42753,10 +42903,13 @@
         <v>59700</v>
       </c>
       <c r="JH58" s="11">
-        <v>62000</v>
+        <v>61200</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>61300</v>
       </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>68</v>
       </c>
@@ -43557,10 +43710,13 @@
         <v>10600</v>
       </c>
       <c r="JH59" s="11">
-        <v>10700</v>
+        <v>10800</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -44363,8 +44519,11 @@
       <c r="JH60" s="11">
         <v>13600</v>
       </c>
+      <c r="JI60" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>71</v>
       </c>
@@ -45165,10 +45324,13 @@
         <v>61400</v>
       </c>
       <c r="JH61" s="11">
-        <v>61100</v>
+        <v>60800</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>60500</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>72</v>
       </c>
@@ -45969,10 +46131,13 @@
         <v>58400</v>
       </c>
       <c r="JH62" s="11">
-        <v>58100</v>
+        <v>57800</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>57500</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>73</v>
       </c>
@@ -46773,10 +46938,13 @@
         <v>20400</v>
       </c>
       <c r="JH63" s="11">
+        <v>20600</v>
+      </c>
+      <c r="JI63" s="11">
         <v>20700</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47579,8 +47747,11 @@
       <c r="JH64" s="11">
         <v>18900</v>
       </c>
+      <c r="JI64" s="11">
+        <v>18800</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>78</v>
       </c>
@@ -48381,10 +48552,13 @@
         <v>162500</v>
       </c>
       <c r="JH65" s="11">
-        <v>162100</v>
+        <v>162500</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>164200</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>79</v>
       </c>
@@ -49185,10 +49359,13 @@
         <v>10300</v>
       </c>
       <c r="JH66" s="11">
-        <v>10500</v>
+        <v>10600</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>80</v>
       </c>
@@ -49989,10 +50166,13 @@
         <v>152200</v>
       </c>
       <c r="JH67" s="11">
-        <v>151600</v>
+        <v>151900</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>153200</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>81</v>
       </c>
@@ -50795,8 +50975,11 @@
       <c r="JH68" s="11">
         <v>53900</v>
       </c>
+      <c r="JI68" s="11">
+        <v>53900</v>
+      </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>82</v>
       </c>
@@ -51599,8 +51782,11 @@
       <c r="JH69" s="11">
         <v>25200</v>
       </c>
+      <c r="JI69" s="11">
+        <v>25400</v>
+      </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>83</v>
       </c>
@@ -52403,8 +52589,11 @@
       <c r="JH70" s="11">
         <v>16800</v>
       </c>
+      <c r="JI70" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>85</v>
       </c>
@@ -53205,10 +53394,13 @@
         <v>89200</v>
       </c>
       <c r="JH71" s="11">
-        <v>89200</v>
+        <v>89000</v>
+      </c>
+      <c r="JI71" s="11">
+        <v>87200</v>
       </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>86</v>
       </c>
@@ -54011,8 +54203,11 @@
       <c r="JH72" s="11">
         <v>11700</v>
       </c>
+      <c r="JI72" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>87</v>
       </c>
@@ -54813,10 +55008,13 @@
         <v>77000</v>
       </c>
       <c r="JH73" s="11">
-        <v>77500</v>
+        <v>77300</v>
+      </c>
+      <c r="JI73" s="11">
+        <v>75700</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>88</v>
       </c>
@@ -55619,8 +55817,11 @@
       <c r="JH74" s="11">
         <v>7200</v>
       </c>
+      <c r="JI74" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>89</v>
       </c>
@@ -56421,10 +56622,13 @@
         <v>70100</v>
       </c>
       <c r="JH75" s="11">
-        <v>70300</v>
+        <v>70100</v>
+      </c>
+      <c r="JI75" s="11">
+        <v>68600</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>90</v>
       </c>
@@ -57225,10 +57429,13 @@
         <v>67100</v>
       </c>
       <c r="JH76" s="11">
-        <v>67300</v>
+        <v>67600</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>66100</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>91</v>
       </c>
@@ -58029,10 +58236,13 @@
         <v>29700</v>
       </c>
       <c r="JH77" s="11">
-        <v>30100</v>
+        <v>30000</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>29200</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>92</v>
       </c>
@@ -58833,10 +59043,13 @@
         <v>37400</v>
       </c>
       <c r="JH78" s="11">
-        <v>37200</v>
+        <v>37600</v>
+      </c>
+      <c r="JI78" s="11">
+        <v>36900</v>
       </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>94</v>
       </c>
@@ -59637,10 +59850,13 @@
         <v>34400</v>
       </c>
       <c r="JH79" s="11">
+        <v>34100</v>
+      </c>
+      <c r="JI79" s="11">
         <v>33700</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>95</v>
       </c>
@@ -60441,10 +60657,13 @@
         <v>10700</v>
       </c>
       <c r="JH80" s="11">
-        <v>10700</v>
+        <v>10600</v>
+      </c>
+      <c r="JI80" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61245,10 +61464,13 @@
         <v>226300</v>
       </c>
       <c r="JH81" s="11">
-        <v>232200</v>
+        <v>231500</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>233000</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62051,8 +62273,11 @@
       <c r="JH82" s="11">
         <v>14500</v>
       </c>
+      <c r="JI82" s="11">
+        <v>14700</v>
+      </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -62855,8 +63080,11 @@
       <c r="JH83" s="11">
         <v>1800</v>
       </c>
+      <c r="JI83" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -63657,10 +63885,13 @@
         <v>211600</v>
       </c>
       <c r="JH84" s="11">
-        <v>217700</v>
+        <v>217000</v>
+      </c>
+      <c r="JI84" s="11">
+        <v>218300</v>
       </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>102</v>
       </c>
@@ -64461,10 +64692,13 @@
         <v>120400</v>
       </c>
       <c r="JH85" s="11">
-        <v>119700</v>
+        <v>120100</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>121500</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>103</v>
       </c>
@@ -65265,10 +65499,13 @@
         <v>24400</v>
       </c>
       <c r="JH86" s="11">
-        <v>23400</v>
+        <v>23600</v>
+      </c>
+      <c r="JI86" s="11">
+        <v>24500</v>
       </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>104</v>
       </c>
@@ -66069,10 +66306,13 @@
         <v>96000</v>
       </c>
       <c r="JH87" s="11">
-        <v>96300</v>
+        <v>96500</v>
+      </c>
+      <c r="JI87" s="11">
+        <v>97000</v>
       </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>105</v>
       </c>
@@ -66873,10 +67113,13 @@
         <v>91200</v>
       </c>
       <c r="JH88" s="11">
-        <v>98000</v>
+        <v>96900</v>
+      </c>
+      <c r="JI88" s="11">
+        <v>96800</v>
       </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>106</v>
       </c>
@@ -67677,10 +67920,13 @@
         <v>44900</v>
       </c>
       <c r="JH89" s="11">
-        <v>52000</v>
+        <v>50200</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>52200</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>107</v>
       </c>
@@ -68481,10 +68727,13 @@
         <v>46300</v>
       </c>
       <c r="JH90" s="11">
-        <v>46000</v>
+        <v>46700</v>
+      </c>
+      <c r="JI90" s="11">
+        <v>44600</v>
       </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>108</v>
       </c>
@@ -69287,8 +69536,11 @@
       <c r="JH91" s="11">
         <v>19000</v>
       </c>
+      <c r="JI91" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70089,10 +70341,13 @@
         <v>10400</v>
       </c>
       <c r="JH92" s="11">
-        <v>10200</v>
+        <v>10800</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>9500</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -70893,10 +71148,13 @@
         <v>16800</v>
       </c>
       <c r="JH93" s="11">
-        <v>16800</v>
+        <v>16900</v>
+      </c>
+      <c r="JI93" s="11">
+        <v>16100</v>
       </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>213</v>
       </c>
@@ -70909,7 +71167,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>16</v>
       </c>

--- a/lowe/edd/data/SACR$HWS.xlsx
+++ b/lowe/edd/data/SACR$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1682,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JJ102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,12 +1699,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1732,12 +1732,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2555,11 +2555,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3363,10 +3366,13 @@
         <v>1098900</v>
       </c>
       <c r="JI9" s="11">
-        <v>1098000</v>
+        <v>1097800</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1102600</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4170,10 +4176,13 @@
         <v>1028200</v>
       </c>
       <c r="JI10" s="11">
-        <v>1037300</v>
+        <v>1037100</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1044100</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4977,10 +4986,13 @@
         <v>70700</v>
       </c>
       <c r="JI11" s="11">
-        <v>60700</v>
+        <v>60800</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>58500</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5786,8 +5798,11 @@
       <c r="JI12" s="12">
         <v>5.5E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6591,10 +6606,13 @@
         <v>1005000</v>
       </c>
       <c r="JI13" s="11">
-        <v>1006600</v>
+        <v>1005800</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1018000</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7398,10 +7416,13 @@
         <v>10500</v>
       </c>
       <c r="JI14" s="11">
-        <v>10900</v>
+        <v>10100</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>9700</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8207,8 +8228,11 @@
       <c r="JI15" s="11">
         <v>995700</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>1008300</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9012,10 +9036,13 @@
         <v>763000</v>
       </c>
       <c r="JI16" s="11">
-        <v>762700</v>
+        <v>762400</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>768300</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9821,8 +9848,11 @@
       <c r="JI17" s="11">
         <v>118200</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>117800</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10628,8 +10658,11 @@
       <c r="JI18" s="11">
         <v>80500</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>79800</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11435,8 +11468,11 @@
       <c r="JI19" s="11">
         <v>600</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12242,8 +12278,11 @@
       <c r="JI20" s="11">
         <v>79900</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>79200</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13047,10 +13086,13 @@
         <v>15100</v>
       </c>
       <c r="JI21" s="11">
-        <v>15300</v>
+        <v>15200</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>15200</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13854,10 +13896,13 @@
         <v>56500</v>
       </c>
       <c r="JI22" s="11">
-        <v>55900</v>
+        <v>55800</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>55100</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14663,8 +14708,11 @@
       <c r="JI23" s="11">
         <v>15500</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15470,8 +15518,11 @@
       <c r="JI24" s="11">
         <v>21800</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>21200</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16275,10 +16326,13 @@
         <v>11800</v>
       </c>
       <c r="JI25" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JJ25" s="11">
         <v>11600</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -17084,8 +17138,11 @@
       <c r="JI26" s="11">
         <v>37700</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>38000</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17891,8 +17948,11 @@
       <c r="JI27" s="11">
         <v>22600</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>22800</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18698,8 +18758,11 @@
       <c r="JI28" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19505,8 +19568,11 @@
       <c r="JI29" s="11">
         <v>15100</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20312,8 +20378,11 @@
       <c r="JI30" s="11">
         <v>5800</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21119,8 +21188,11 @@
       <c r="JI31" s="11">
         <v>877500</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>890500</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21924,10 +21996,13 @@
         <v>644100</v>
       </c>
       <c r="JI32" s="11">
-        <v>644500</v>
+        <v>644200</v>
+      </c>
+      <c r="JJ32" s="11">
+        <v>650500</v>
       </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22733,8 +22808,11 @@
       <c r="JI33" s="11">
         <v>161800</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>164400</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23538,10 +23616,13 @@
         <v>26300</v>
       </c>
       <c r="JI34" s="11">
-        <v>26100</v>
+        <v>26000</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>26000</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24347,8 +24428,11 @@
       <c r="JI35" s="11">
         <v>15300</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25152,10 +25236,13 @@
         <v>9500</v>
       </c>
       <c r="JI36" s="11">
+        <v>9400</v>
+      </c>
+      <c r="JJ36" s="11">
         <v>9500</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25959,10 +26046,13 @@
         <v>97600</v>
       </c>
       <c r="JI37" s="11">
-        <v>97900</v>
+        <v>98000</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>100600</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26766,10 +26856,13 @@
         <v>14400</v>
       </c>
       <c r="JI38" s="11">
-        <v>14300</v>
+        <v>14400</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>14500</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27575,8 +27668,11 @@
       <c r="JI39" s="11">
         <v>9100</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28380,10 +28476,13 @@
         <v>19900</v>
       </c>
       <c r="JI40" s="11">
-        <v>19600</v>
+        <v>19800</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>19900</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29189,8 +29288,11 @@
       <c r="JI41" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29994,10 +30096,13 @@
         <v>7900</v>
       </c>
       <c r="JI42" s="11">
-        <v>7800</v>
+        <v>7900</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>8000</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30803,8 +30908,11 @@
       <c r="JI43" s="11">
         <v>3300</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31608,10 +31716,13 @@
         <v>18400</v>
       </c>
       <c r="JI44" s="11">
-        <v>18700</v>
+        <v>18800</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32417,8 +32528,11 @@
       <c r="JI45" s="11">
         <v>37800</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>37800</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -33222,10 +33336,13 @@
         <v>9900</v>
       </c>
       <c r="JI46" s="11">
-        <v>9900</v>
+        <v>10000</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>10100</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -34031,8 +34148,11 @@
       <c r="JI47" s="11">
         <v>2100</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34838,8 +34958,11 @@
       <c r="JI48" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35643,10 +35766,13 @@
         <v>51900</v>
       </c>
       <c r="JI49" s="11">
-        <v>52400</v>
+        <v>52100</v>
+      </c>
+      <c r="JJ49" s="11">
+        <v>52500</v>
       </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36450,10 +36576,13 @@
         <v>35000</v>
       </c>
       <c r="JI50" s="11">
-        <v>35300</v>
+        <v>35100</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>35800</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -37257,10 +37386,13 @@
         <v>11500</v>
       </c>
       <c r="JI51" s="11">
-        <v>11300</v>
+        <v>11200</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>11500</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -38064,10 +38196,13 @@
         <v>5900</v>
       </c>
       <c r="JI52" s="11">
+        <v>5900</v>
+      </c>
+      <c r="JJ52" s="11">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -38873,8 +39008,11 @@
       <c r="JI53" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>62</v>
       </c>
@@ -39678,10 +39816,13 @@
         <v>18900</v>
       </c>
       <c r="JI54" s="11">
-        <v>19400</v>
+        <v>19300</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40485,10 +40626,13 @@
         <v>16900</v>
       </c>
       <c r="JI55" s="11">
-        <v>17100</v>
+        <v>17000</v>
+      </c>
+      <c r="JJ55" s="11">
+        <v>16700</v>
       </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>64</v>
       </c>
@@ -41294,8 +41438,11 @@
       <c r="JI56" s="11">
         <v>13900</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>66</v>
       </c>
@@ -42099,10 +42246,13 @@
         <v>135600</v>
       </c>
       <c r="JI57" s="11">
-        <v>135300</v>
+        <v>135700</v>
+      </c>
+      <c r="JJ57" s="11">
+        <v>137900</v>
       </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>67</v>
       </c>
@@ -42906,10 +43056,13 @@
         <v>61200</v>
       </c>
       <c r="JI58" s="11">
-        <v>61300</v>
+        <v>61600</v>
+      </c>
+      <c r="JJ58" s="11">
+        <v>62000</v>
       </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>68</v>
       </c>
@@ -43715,8 +43868,11 @@
       <c r="JI59" s="11">
         <v>10800</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -44522,8 +44678,11 @@
       <c r="JI60" s="11">
         <v>13500</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>13400</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>71</v>
       </c>
@@ -45327,10 +45486,13 @@
         <v>60800</v>
       </c>
       <c r="JI61" s="11">
-        <v>60500</v>
+        <v>60600</v>
+      </c>
+      <c r="JJ61" s="11">
+        <v>62500</v>
       </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>72</v>
       </c>
@@ -46134,10 +46296,13 @@
         <v>57800</v>
       </c>
       <c r="JI62" s="11">
-        <v>57500</v>
+        <v>57600</v>
+      </c>
+      <c r="JJ62" s="11">
+        <v>59400</v>
       </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>73</v>
       </c>
@@ -46941,10 +47106,13 @@
         <v>20600</v>
       </c>
       <c r="JI63" s="11">
-        <v>20700</v>
+        <v>21000</v>
+      </c>
+      <c r="JJ63" s="11">
+        <v>22000</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47750,8 +47918,11 @@
       <c r="JI64" s="11">
         <v>18800</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>78</v>
       </c>
@@ -48555,10 +48726,13 @@
         <v>162500</v>
       </c>
       <c r="JI65" s="11">
-        <v>164200</v>
+        <v>163300</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>164700</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>79</v>
       </c>
@@ -49364,8 +49538,11 @@
       <c r="JI66" s="11">
         <v>11000</v>
       </c>
+      <c r="JJ66" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>80</v>
       </c>
@@ -50169,10 +50346,13 @@
         <v>151900</v>
       </c>
       <c r="JI67" s="11">
-        <v>153200</v>
+        <v>152300</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>153000</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>81</v>
       </c>
@@ -50976,10 +51156,13 @@
         <v>53900</v>
       </c>
       <c r="JI68" s="11">
-        <v>53900</v>
+        <v>53600</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>54400</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>82</v>
       </c>
@@ -51783,10 +51966,13 @@
         <v>25200</v>
       </c>
       <c r="JI69" s="11">
+        <v>25300</v>
+      </c>
+      <c r="JJ69" s="11">
         <v>25400</v>
       </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>83</v>
       </c>
@@ -52592,8 +52778,11 @@
       <c r="JI70" s="11">
         <v>16800</v>
       </c>
+      <c r="JJ70" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>85</v>
       </c>
@@ -53397,10 +53586,13 @@
         <v>89000</v>
       </c>
       <c r="JI71" s="11">
-        <v>87200</v>
+        <v>87100</v>
+      </c>
+      <c r="JJ71" s="11">
+        <v>87500</v>
       </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>86</v>
       </c>
@@ -54204,10 +54396,13 @@
         <v>11700</v>
       </c>
       <c r="JI72" s="11">
-        <v>11500</v>
+        <v>11200</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>87</v>
       </c>
@@ -55011,10 +55206,13 @@
         <v>77300</v>
       </c>
       <c r="JI73" s="11">
-        <v>75700</v>
+        <v>75900</v>
+      </c>
+      <c r="JJ73" s="11">
+        <v>76500</v>
       </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>88</v>
       </c>
@@ -55820,8 +56018,11 @@
       <c r="JI74" s="11">
         <v>7100</v>
       </c>
+      <c r="JJ74" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>89</v>
       </c>
@@ -56625,10 +56826,13 @@
         <v>70100</v>
       </c>
       <c r="JI75" s="11">
-        <v>68600</v>
+        <v>68800</v>
+      </c>
+      <c r="JJ75" s="11">
+        <v>69500</v>
       </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>90</v>
       </c>
@@ -57432,10 +57636,13 @@
         <v>67600</v>
       </c>
       <c r="JI76" s="11">
-        <v>66100</v>
+        <v>66500</v>
+      </c>
+      <c r="JJ76" s="11">
+        <v>66900</v>
       </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>91</v>
       </c>
@@ -58239,10 +58446,13 @@
         <v>30000</v>
       </c>
       <c r="JI77" s="11">
-        <v>29200</v>
+        <v>29300</v>
+      </c>
+      <c r="JJ77" s="11">
+        <v>29700</v>
       </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>92</v>
       </c>
@@ -59046,10 +59256,13 @@
         <v>37600</v>
       </c>
       <c r="JI78" s="11">
-        <v>36900</v>
+        <v>37200</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>37200</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>94</v>
       </c>
@@ -59853,10 +60066,13 @@
         <v>34100</v>
       </c>
       <c r="JI79" s="11">
-        <v>33700</v>
+        <v>34200</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>33400</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>95</v>
       </c>
@@ -60662,8 +60878,11 @@
       <c r="JI80" s="11">
         <v>10600</v>
       </c>
+      <c r="JJ80" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61467,10 +61686,13 @@
         <v>231500</v>
       </c>
       <c r="JI81" s="11">
-        <v>233000</v>
+        <v>233300</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>240000</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62276,8 +62498,11 @@
       <c r="JI82" s="11">
         <v>14700</v>
       </c>
+      <c r="JJ82" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -63083,8 +63308,11 @@
       <c r="JI83" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ83" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -63888,10 +64116,13 @@
         <v>217000</v>
       </c>
       <c r="JI84" s="11">
-        <v>218300</v>
+        <v>218600</v>
+      </c>
+      <c r="JJ84" s="11">
+        <v>225500</v>
       </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>102</v>
       </c>
@@ -64697,8 +64928,11 @@
       <c r="JI85" s="11">
         <v>121500</v>
       </c>
+      <c r="JJ85" s="11">
+        <v>124200</v>
+      </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>103</v>
       </c>
@@ -65504,8 +65738,11 @@
       <c r="JI86" s="11">
         <v>24500</v>
       </c>
+      <c r="JJ86" s="11">
+        <v>26800</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>104</v>
       </c>
@@ -66311,8 +66548,11 @@
       <c r="JI87" s="11">
         <v>97000</v>
       </c>
+      <c r="JJ87" s="11">
+        <v>97400</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>105</v>
       </c>
@@ -67116,10 +67356,13 @@
         <v>96900</v>
       </c>
       <c r="JI88" s="11">
-        <v>96800</v>
+        <v>97100</v>
+      </c>
+      <c r="JJ88" s="11">
+        <v>101300</v>
       </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>106</v>
       </c>
@@ -67923,10 +68166,13 @@
         <v>50200</v>
       </c>
       <c r="JI89" s="11">
-        <v>52200</v>
+        <v>52100</v>
+      </c>
+      <c r="JJ89" s="11">
+        <v>56400</v>
       </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>107</v>
       </c>
@@ -68730,10 +68976,13 @@
         <v>46700</v>
       </c>
       <c r="JI90" s="11">
-        <v>44600</v>
+        <v>45000</v>
+      </c>
+      <c r="JJ90" s="11">
+        <v>44900</v>
       </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>108</v>
       </c>
@@ -69537,10 +69786,13 @@
         <v>19000</v>
       </c>
       <c r="JI91" s="11">
-        <v>19000</v>
+        <v>19200</v>
+      </c>
+      <c r="JJ91" s="11">
+        <v>19100</v>
       </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70344,10 +70596,13 @@
         <v>10800</v>
       </c>
       <c r="JI92" s="11">
-        <v>9500</v>
+        <v>9600</v>
+      </c>
+      <c r="JJ92" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -71151,10 +71406,13 @@
         <v>16900</v>
       </c>
       <c r="JI93" s="11">
-        <v>16100</v>
+        <v>16200</v>
+      </c>
+      <c r="JJ93" s="11">
+        <v>16000</v>
       </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>213</v>
       </c>
@@ -71167,7 +71425,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>16</v>
       </c>

--- a/lowe/edd/data/SACR$HWS.xlsx
+++ b/lowe/edd/data/SACR$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,13 +515,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1682,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JL102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,12 +1699,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1732,12 +1732,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2558,11 +2558,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3369,10 +3375,16 @@
         <v>1097800</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1102600</v>
+        <v>1101600</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1104500</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1099300</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4179,10 +4191,16 @@
         <v>1037100</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1044100</v>
+        <v>1043000</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1053000</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1051000</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4989,10 +5007,16 @@
         <v>60800</v>
       </c>
       <c r="JJ11" s="11">
-        <v>58500</v>
+        <v>58600</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>51500</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>48200</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5801,8 +5825,14 @@
       <c r="JJ12" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6609,10 +6639,16 @@
         <v>1005800</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1018000</v>
+        <v>1016900</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1022400</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1020100</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7421,8 +7457,14 @@
       <c r="JJ14" s="11">
         <v>9700</v>
       </c>
+      <c r="JK14" s="11">
+        <v>7700</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8229,10 +8271,16 @@
         <v>995700</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1008300</v>
+        <v>1007200</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1014700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1012600</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9039,10 +9087,16 @@
         <v>762400</v>
       </c>
       <c r="JJ16" s="11">
-        <v>768300</v>
+        <v>768700</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>774000</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>773500</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9849,10 +9903,16 @@
         <v>118200</v>
       </c>
       <c r="JJ17" s="11">
-        <v>117800</v>
+        <v>118100</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>117400</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>114100</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10659,10 +10719,16 @@
         <v>80500</v>
       </c>
       <c r="JJ18" s="11">
-        <v>79800</v>
+        <v>80200</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>79600</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>77300</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11471,8 +11537,14 @@
       <c r="JJ19" s="11">
         <v>600</v>
       </c>
+      <c r="JK19" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12279,10 +12351,16 @@
         <v>79900</v>
       </c>
       <c r="JJ20" s="11">
-        <v>79200</v>
+        <v>79600</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>79000</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>76700</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13089,10 +13167,16 @@
         <v>15200</v>
       </c>
       <c r="JJ21" s="11">
-        <v>15200</v>
+        <v>15400</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>15100</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>15000</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13901,8 +13985,14 @@
       <c r="JJ22" s="11">
         <v>55100</v>
       </c>
+      <c r="JK22" s="11">
+        <v>54900</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>52600</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14709,10 +14799,16 @@
         <v>15500</v>
       </c>
       <c r="JJ23" s="11">
-        <v>15300</v>
+        <v>15200</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>15000</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>14300</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15519,10 +15615,16 @@
         <v>21800</v>
       </c>
       <c r="JJ24" s="11">
-        <v>21200</v>
+        <v>21800</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>21800</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16329,10 +16431,16 @@
         <v>11500</v>
       </c>
       <c r="JJ25" s="11">
-        <v>11600</v>
+        <v>11300</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>11100</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>10500</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -17139,10 +17247,16 @@
         <v>37700</v>
       </c>
       <c r="JJ26" s="11">
-        <v>38000</v>
+        <v>37900</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>37800</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>36800</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17949,10 +18063,16 @@
         <v>22600</v>
       </c>
       <c r="JJ27" s="11">
-        <v>22800</v>
+        <v>22700</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>22700</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>22100</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18759,10 +18879,16 @@
         <v>4600</v>
       </c>
       <c r="JJ28" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JK28" s="11">
         <v>4600</v>
       </c>
+      <c r="JL28" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -19571,8 +19697,14 @@
       <c r="JJ29" s="11">
         <v>15200</v>
       </c>
+      <c r="JK29" s="11">
+        <v>15100</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>14700</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20381,8 +20513,14 @@
       <c r="JJ30" s="11">
         <v>5700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>5500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21189,10 +21327,16 @@
         <v>877500</v>
       </c>
       <c r="JJ31" s="11">
-        <v>890500</v>
+        <v>889100</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>897300</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>898500</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21999,10 +22143,16 @@
         <v>644200</v>
       </c>
       <c r="JJ32" s="11">
-        <v>650500</v>
+        <v>650600</v>
+      </c>
+      <c r="JK32" s="11">
+        <v>656600</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>659400</v>
       </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22811,8 +22961,14 @@
       <c r="JJ33" s="11">
         <v>164400</v>
       </c>
+      <c r="JK33" s="11">
+        <v>168400</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>171300</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23621,8 +23777,14 @@
       <c r="JJ34" s="11">
         <v>26000</v>
       </c>
+      <c r="JK34" s="11">
+        <v>25900</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>26000</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24431,8 +24593,14 @@
       <c r="JJ35" s="11">
         <v>15300</v>
       </c>
+      <c r="JK35" s="11">
+        <v>15100</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25239,10 +25407,16 @@
         <v>9400</v>
       </c>
       <c r="JJ36" s="11">
-        <v>9500</v>
+        <v>9400</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>9400</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>9400</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -26049,10 +26223,16 @@
         <v>98000</v>
       </c>
       <c r="JJ37" s="11">
-        <v>100600</v>
+        <v>100500</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>103400</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>105000</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26861,8 +27041,14 @@
       <c r="JJ38" s="11">
         <v>14500</v>
       </c>
+      <c r="JK38" s="11">
+        <v>14500</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>14900</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27671,8 +27857,14 @@
       <c r="JJ39" s="11">
         <v>9100</v>
       </c>
+      <c r="JK39" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28479,10 +28671,16 @@
         <v>19800</v>
       </c>
       <c r="JJ40" s="11">
-        <v>19900</v>
+        <v>20100</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>20300</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>20200</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29291,8 +29489,14 @@
       <c r="JJ41" s="11">
         <v>5400</v>
       </c>
+      <c r="JK41" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -30101,8 +30305,14 @@
       <c r="JJ42" s="11">
         <v>8000</v>
       </c>
+      <c r="JK42" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -30911,8 +31121,14 @@
       <c r="JJ43" s="11">
         <v>3300</v>
       </c>
+      <c r="JK43" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>48</v>
       </c>
@@ -31721,8 +31937,14 @@
       <c r="JJ44" s="11">
         <v>19600</v>
       </c>
+      <c r="JK44" s="11">
+        <v>20800</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>21100</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>50</v>
       </c>
@@ -32529,10 +32751,16 @@
         <v>37800</v>
       </c>
       <c r="JJ45" s="11">
-        <v>37800</v>
+        <v>37900</v>
+      </c>
+      <c r="JK45" s="11">
+        <v>39100</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>40300</v>
       </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>51</v>
       </c>
@@ -33341,8 +33569,14 @@
       <c r="JJ46" s="11">
         <v>10100</v>
       </c>
+      <c r="JK46" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>52</v>
       </c>
@@ -34151,8 +34385,14 @@
       <c r="JJ47" s="11">
         <v>2100</v>
       </c>
+      <c r="JK47" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>53</v>
       </c>
@@ -34961,8 +35201,14 @@
       <c r="JJ48" s="11">
         <v>2800</v>
       </c>
+      <c r="JK48" s="11">
+        <v>2800</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35771,8 +36017,14 @@
       <c r="JJ49" s="11">
         <v>52500</v>
       </c>
+      <c r="JK49" s="11">
+        <v>53000</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>53800</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>56</v>
       </c>
@@ -36579,10 +36831,16 @@
         <v>35100</v>
       </c>
       <c r="JJ50" s="11">
-        <v>35800</v>
+        <v>35700</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>36000</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>36900</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>57</v>
       </c>
@@ -37391,8 +37649,14 @@
       <c r="JJ51" s="11">
         <v>11500</v>
       </c>
+      <c r="JK51" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>58</v>
       </c>
@@ -38199,10 +38463,16 @@
         <v>5900</v>
       </c>
       <c r="JJ52" s="11">
-        <v>5800</v>
+        <v>6000</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>6100</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>59</v>
       </c>
@@ -39011,8 +39281,14 @@
       <c r="JJ53" s="11">
         <v>3000</v>
       </c>
+      <c r="JK53" s="11">
+        <v>3000</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>62</v>
       </c>
@@ -39821,8 +40097,14 @@
       <c r="JJ54" s="11">
         <v>19600</v>
       </c>
+      <c r="JK54" s="11">
+        <v>19600</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -40629,10 +40911,16 @@
         <v>17000</v>
       </c>
       <c r="JJ55" s="11">
-        <v>16700</v>
+        <v>16800</v>
+      </c>
+      <c r="JK55" s="11">
+        <v>17000</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>64</v>
       </c>
@@ -41439,10 +41727,16 @@
         <v>13900</v>
       </c>
       <c r="JJ56" s="11">
-        <v>13600</v>
+        <v>13700</v>
+      </c>
+      <c r="JK56" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>13800</v>
       </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>66</v>
       </c>
@@ -42249,10 +42543,16 @@
         <v>135700</v>
       </c>
       <c r="JJ57" s="11">
-        <v>137900</v>
+        <v>137400</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>137000</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>136000</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>67</v>
       </c>
@@ -43061,8 +43361,14 @@
       <c r="JJ58" s="11">
         <v>62000</v>
       </c>
+      <c r="JK58" s="11">
+        <v>62000</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>62300</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>68</v>
       </c>
@@ -43869,10 +44175,16 @@
         <v>10800</v>
       </c>
       <c r="JJ59" s="11">
-        <v>11100</v>
+        <v>10900</v>
+      </c>
+      <c r="JK59" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>10900</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -44681,8 +44993,14 @@
       <c r="JJ60" s="11">
         <v>13400</v>
       </c>
+      <c r="JK60" s="11">
+        <v>13200</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>71</v>
       </c>
@@ -45489,10 +45807,16 @@
         <v>60600</v>
       </c>
       <c r="JJ61" s="11">
-        <v>62500</v>
+        <v>62000</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>61800</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>60600</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>72</v>
       </c>
@@ -46299,10 +46623,16 @@
         <v>57600</v>
       </c>
       <c r="JJ62" s="11">
-        <v>59400</v>
+        <v>59000</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>58700</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>57600</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>73</v>
       </c>
@@ -47109,10 +47439,16 @@
         <v>21000</v>
       </c>
       <c r="JJ63" s="11">
-        <v>22000</v>
+        <v>22200</v>
+      </c>
+      <c r="JK63" s="11">
+        <v>22100</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>21900</v>
       </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47919,10 +48255,16 @@
         <v>18800</v>
       </c>
       <c r="JJ64" s="11">
-        <v>19000</v>
+        <v>19100</v>
+      </c>
+      <c r="JK64" s="11">
+        <v>19100</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>18700</v>
       </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>78</v>
       </c>
@@ -48731,8 +49073,14 @@
       <c r="JJ65" s="11">
         <v>164700</v>
       </c>
+      <c r="JK65" s="11">
+        <v>166000</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>165200</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>79</v>
       </c>
@@ -49541,8 +49889,14 @@
       <c r="JJ66" s="11">
         <v>11700</v>
       </c>
+      <c r="JK66" s="11">
+        <v>11800</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>80</v>
       </c>
@@ -50351,8 +50705,14 @@
       <c r="JJ67" s="11">
         <v>153000</v>
       </c>
+      <c r="JK67" s="11">
+        <v>154200</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>153400</v>
+      </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>81</v>
       </c>
@@ -51159,10 +51519,16 @@
         <v>53600</v>
       </c>
       <c r="JJ68" s="11">
-        <v>54400</v>
+        <v>54600</v>
+      </c>
+      <c r="JK68" s="11">
+        <v>55200</v>
+      </c>
+      <c r="JL68" s="11">
+        <v>54100</v>
       </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>82</v>
       </c>
@@ -51971,8 +52337,14 @@
       <c r="JJ69" s="11">
         <v>25400</v>
       </c>
+      <c r="JK69" s="11">
+        <v>25500</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>25600</v>
+      </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>83</v>
       </c>
@@ -52781,8 +53153,14 @@
       <c r="JJ70" s="11">
         <v>16700</v>
       </c>
+      <c r="JK70" s="11">
+        <v>16800</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>85</v>
       </c>
@@ -53591,8 +53969,14 @@
       <c r="JJ71" s="11">
         <v>87500</v>
       </c>
+      <c r="JK71" s="11">
+        <v>87500</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>89500</v>
+      </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>86</v>
       </c>
@@ -54401,8 +54785,14 @@
       <c r="JJ72" s="11">
         <v>11000</v>
       </c>
+      <c r="JK72" s="11">
+        <v>11200</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>87</v>
       </c>
@@ -55211,8 +55601,14 @@
       <c r="JJ73" s="11">
         <v>76500</v>
       </c>
+      <c r="JK73" s="11">
+        <v>76300</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>77500</v>
+      </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>88</v>
       </c>
@@ -56021,8 +56417,14 @@
       <c r="JJ74" s="11">
         <v>7000</v>
       </c>
+      <c r="JK74" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>89</v>
       </c>
@@ -56831,8 +57233,14 @@
       <c r="JJ75" s="11">
         <v>69500</v>
       </c>
+      <c r="JK75" s="11">
+        <v>69300</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>70300</v>
+      </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>90</v>
       </c>
@@ -57639,10 +58047,16 @@
         <v>66500</v>
       </c>
       <c r="JJ76" s="11">
-        <v>66900</v>
+        <v>67000</v>
+      </c>
+      <c r="JK76" s="11">
+        <v>66700</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>67700</v>
       </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>91</v>
       </c>
@@ -58449,10 +58863,16 @@
         <v>29300</v>
       </c>
       <c r="JJ77" s="11">
-        <v>29700</v>
+        <v>29200</v>
+      </c>
+      <c r="JK77" s="11">
+        <v>29100</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>29600</v>
       </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>92</v>
       </c>
@@ -59259,10 +59679,16 @@
         <v>37200</v>
       </c>
       <c r="JJ78" s="11">
-        <v>37200</v>
+        <v>37800</v>
+      </c>
+      <c r="JK78" s="11">
+        <v>37600</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>38100</v>
       </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>94</v>
       </c>
@@ -60069,10 +60495,16 @@
         <v>34200</v>
       </c>
       <c r="JJ79" s="11">
+        <v>34000</v>
+      </c>
+      <c r="JK79" s="11">
+        <v>34600</v>
+      </c>
+      <c r="JL79" s="11">
         <v>33400</v>
       </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>95</v>
       </c>
@@ -60879,10 +61311,16 @@
         <v>10600</v>
       </c>
       <c r="JJ80" s="11">
-        <v>10500</v>
+        <v>10600</v>
+      </c>
+      <c r="JK80" s="11">
+        <v>10700</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61689,10 +62127,16 @@
         <v>233300</v>
       </c>
       <c r="JJ81" s="11">
-        <v>240000</v>
+        <v>238500</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>240700</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>239100</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62501,8 +62945,14 @@
       <c r="JJ82" s="11">
         <v>14500</v>
       </c>
+      <c r="JK82" s="11">
+        <v>14900</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -63311,8 +63761,14 @@
       <c r="JJ83" s="11">
         <v>1800</v>
       </c>
+      <c r="JK83" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -64119,10 +64575,16 @@
         <v>218600</v>
       </c>
       <c r="JJ84" s="11">
-        <v>225500</v>
+        <v>224000</v>
+      </c>
+      <c r="JK84" s="11">
+        <v>225800</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>224300</v>
       </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>102</v>
       </c>
@@ -64931,8 +65393,14 @@
       <c r="JJ85" s="11">
         <v>124200</v>
       </c>
+      <c r="JK85" s="11">
+        <v>125200</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>125000</v>
+      </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>103</v>
       </c>
@@ -65739,10 +66207,16 @@
         <v>24500</v>
       </c>
       <c r="JJ86" s="11">
-        <v>26800</v>
+        <v>27300</v>
+      </c>
+      <c r="JK86" s="11">
+        <v>27800</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>28300</v>
       </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>104</v>
       </c>
@@ -66549,10 +67023,16 @@
         <v>97000</v>
       </c>
       <c r="JJ87" s="11">
+        <v>96900</v>
+      </c>
+      <c r="JK87" s="11">
         <v>97400</v>
       </c>
+      <c r="JL87" s="11">
+        <v>96700</v>
+      </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>105</v>
       </c>
@@ -67359,10 +67839,16 @@
         <v>97100</v>
       </c>
       <c r="JJ88" s="11">
-        <v>101300</v>
+        <v>99800</v>
+      </c>
+      <c r="JK88" s="11">
+        <v>100600</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>99300</v>
       </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>106</v>
       </c>
@@ -68169,10 +68655,16 @@
         <v>52100</v>
       </c>
       <c r="JJ89" s="11">
-        <v>56400</v>
+        <v>54900</v>
+      </c>
+      <c r="JK89" s="11">
+        <v>55900</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>54600</v>
       </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>107</v>
       </c>
@@ -68981,8 +69473,14 @@
       <c r="JJ90" s="11">
         <v>44900</v>
       </c>
+      <c r="JK90" s="11">
+        <v>44700</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>44700</v>
+      </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>108</v>
       </c>
@@ -69791,8 +70289,14 @@
       <c r="JJ91" s="11">
         <v>19100</v>
       </c>
+      <c r="JK91" s="11">
+        <v>19000</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -70601,8 +71105,14 @@
       <c r="JJ92" s="11">
         <v>9800</v>
       </c>
+      <c r="JK92" s="11">
+        <v>9700</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>9700</v>
+      </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -71411,8 +71921,14 @@
       <c r="JJ93" s="11">
         <v>16000</v>
       </c>
+      <c r="JK93" s="11">
+        <v>16000</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>213</v>
       </c>
@@ -71425,7 +71941,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>16</v>
       </c>
